--- a/FoodDelivery.Services/Ai/segmentation_results.xlsx
+++ b/FoodDelivery.Services/Ai/segmentation_results.xlsx
@@ -477,21 +477,21 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>330</v>
       </c>
       <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>New Customer</t>
+          <t>High Value</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>660</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -502,87 +502,87 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Admin@Food.com</t>
+          <t>Ahmed</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>New Customer</t>
+          <t>High Value</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5760</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>High Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ahmed</t>
+          <t>eng.ahmedyaseen4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>High Value</t>
+          <t>Low Value</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3600</v>
+        <v>600</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>High Risk</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>eng.ahmedyaseen4</t>
+          <t>Mohand</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>600</v>
+        <v>6000</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>New Customer</t>
+          <t>Low Value</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>600</v>
+        <v>6000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>High Risk</t>
         </is>
       </c>
     </row>
@@ -599,11 +599,11 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>New Customer</t>
+          <t>Low Value</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -611,7 +611,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>High Risk</t>
         </is>
       </c>
     </row>
@@ -622,21 +622,21 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5100</v>
+        <v>20100</v>
       </c>
       <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>New Customer</t>
+          <t>Medium Value</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5100</v>
+        <v>40200</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>

--- a/FoodDelivery.Services/Ai/segmentation_results.xlsx
+++ b/FoodDelivery.Services/Ai/segmentation_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,10 +461,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>AverageOrderValue</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>PurchaseFrequency</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>LifetimeValue</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ChurnRisk</t>
         </is>
@@ -483,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -491,9 +501,15 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>660</v>
-      </c>
-      <c r="G2" t="inlineStr">
+        <v>165</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H2" t="n">
+        <v>396</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -512,7 +528,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -520,9 +536,15 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5760</v>
-      </c>
-      <c r="G3" t="inlineStr">
+        <v>640</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2304</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -541,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -551,7 +573,13 @@
       <c r="F4" t="n">
         <v>600</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H4" t="n">
+        <v>720</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -570,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -580,7 +608,13 @@
       <c r="F5" t="n">
         <v>6000</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7200</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -589,56 +623,103 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Yaseen</t>
+          <t>Noha</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Low Value</t>
+          <t>High Value</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>300</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+        <v>600</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H6" t="n">
+        <v>720</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Yaseen</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>300</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Low Value</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>300</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H7" t="n">
+        <v>360</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>High Risk</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>zakria</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
         <v>20100</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Medium Value</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>40200</v>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="F8" t="n">
+        <v>10050</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H8" t="n">
+        <v>24120</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
